--- a/data/trans_dic/P36$otros-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,91</t>
+          <t>1,36; 5,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,55</t>
+          <t>0,59; 3,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,68</t>
+          <t>1,33; 5,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,74</t>
+          <t>0,4; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,97</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,95</t>
+          <t>1,9; 5,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,64</t>
+          <t>1,09; 3,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,52</t>
+          <t>0,61; 2,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,79</t>
+          <t>1,86; 4,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,45</t>
+          <t>1,45; 4,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,18</t>
+          <t>0,58; 3,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,08</t>
+          <t>0,62; 3,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,63</t>
+          <t>0,19; 1,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,25</t>
+          <t>1,4; 3,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,33</t>
+          <t>0,09; 1,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,02</t>
+          <t>0,51; 1,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,54</t>
+          <t>0,27; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,8</t>
+          <t>0,3; 2,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,63</t>
+          <t>0,81; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,68</t>
+          <t>1,14; 4,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,53</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,42</t>
+          <t>0,6; 2,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,86</t>
+          <t>1,03; 3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,8</t>
+          <t>0,14; 1,99</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,34</t>
+          <t>1,53; 5,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,91</t>
+          <t>0,87; 4,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 29,63</t>
+          <t>20,26; 29,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,68</t>
+          <t>1,48; 4,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,48</t>
+          <t>0,25; 2,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,02; 29,23</t>
+          <t>19,61; 29,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,31</t>
+          <t>1,89; 4,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,91</t>
+          <t>0,85; 3,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 27,72</t>
+          <t>21,22; 27,75</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1145,7 +1146,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1240,17 +1241,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,51</t>
+          <t>1,43; 5,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,29 +1261,29 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,67</t>
+          <t>0,37; 3,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,58</t>
+          <t>0,18; 1,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,91</t>
+          <t>0,32; 1,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,66</t>
+          <t>1,15; 3,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,16</t>
+          <t>0,68; 2,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,4</t>
+          <t>1,03; 3,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,62</t>
+          <t>1,72; 4,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,39</t>
+          <t>1,13; 3,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,73</t>
+          <t>1,19; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,95</t>
+          <t>2,73; 5,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,69</t>
+          <t>1,19; 2,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,15</t>
+          <t>1,37; 3,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,81</t>
+          <t>2,64; 4,83</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,28</t>
+          <t>1,05; 2,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,37 +1466,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,56</t>
+          <t>0,77; 2,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,41</t>
+          <t>0,24; 1,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,18</t>
+          <t>0,13; 1,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,43</t>
+          <t>1,1; 2,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,77</t>
+          <t>0,14; 0,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,78</t>
+          <t>0,13; 0,8</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,33</t>
+          <t>1,41; 2,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,48</t>
+          <t>0,7; 1,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,84</t>
+          <t>3,37; 4,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,13</t>
+          <t>1,23; 2,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,55</t>
+          <t>0,82; 1,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,96</t>
+          <t>3,53; 4,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,05</t>
+          <t>1,45; 2,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,37</t>
+          <t>0,88; 1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,62</t>
+          <t>3,63; 4,61</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, otros alimentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4791</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9885</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11474</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7947</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17956</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3682; 14198</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1744; 10878</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3898; 16651</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1052; 10221</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8336</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5472; 17260</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5785; 18632</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3553; 15269</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10839; 28258</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13405</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7873</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3198</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21278</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10470</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7137; 22029</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12047</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2908; 15597</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3116; 15989</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6026</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>981; 8880</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13910; 33378</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>899; 12143</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5180; 19772</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2874</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5956</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8063</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8830</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11895</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3899</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>870; 7828</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>959; 9604</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4820</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2718; 12578</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3893; 15274</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11069</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3924; 15571</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6829; 20007</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>925; 13009</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10484</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8436</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91042</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>94358</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21170</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12309</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>185400</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5455; 20760</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3260; 16905</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>74953; 109836</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5492; 18546</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>990; 9738</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75948; 113284</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13775; 32489</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6452; 22962</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>160659; 210149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5212</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4439</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4664</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4929</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7819</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3450</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4849</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11269</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4965</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6812</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3770; 14620</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7807</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>951; 7993</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>999; 9183</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>987; 8612</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1784; 9863</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6135; 18774</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13072</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>19771</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13481</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15228</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>28356</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22871</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28300</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48127</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4146; 17609</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6844; 22247</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11249; 30638</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7209; 23117</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8255; 25414</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>18820; 40719</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14859; 34645</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>18602; 43185</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35471; 64852</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>11383</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5189</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>25139</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6219</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>6236</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>7783; 21950</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5183</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7430</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6025; 19410</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2001; 11878</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1051; 9862</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>16858; 36290</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2178; 13809</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2142; 12782</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>35946</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>136908</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>55531</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>146449</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>114886</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>283357</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>46143; 76136</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>24101; 52927</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>114086; 161648</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>41555; 70627</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>29013; 54551</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>125167; 171338</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>96628; 138150</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>61548; 96497</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>251277; 319791</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>